--- a/RC Physical Model/Measurements/Measurements_Small_Scale_F16.xlsx
+++ b/RC Physical Model/Measurements/Measurements_Small_Scale_F16.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Camden\Desktop\Spring 2021\ECE 413\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FFA9C30-B835-460F-B49D-A74585AE8B65}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BC46784-D4D7-47D6-9226-F402CB32460A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="1485" windowWidth="29040" windowHeight="15840" xr2:uid="{B12440C0-934D-46DA-BFA5-1E08A9198AD1}"/>
+    <workbookView xWindow="-25395" yWindow="5430" windowWidth="21600" windowHeight="11385" xr2:uid="{B12440C0-934D-46DA-BFA5-1E08A9198AD1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,8 +33,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="45">
   <si>
     <t>Item to Measure</t>
   </si>
@@ -130,6 +152,45 @@
   </si>
   <si>
     <t>Measurement (in)</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>Ref. Length</t>
+  </si>
+  <si>
+    <t>Period</t>
+  </si>
+  <si>
+    <t>No. Oscillations</t>
+  </si>
+  <si>
+    <t>Time for Oscillations</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>Axis of Oscillation</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Z</t>
+  </si>
+  <si>
+    <t>Moments of Inertia (Kg m^2)</t>
+  </si>
+  <si>
+    <t>Axis Of Oscillation</t>
+  </si>
+  <si>
+    <t>Moments of Inertia (Slug-ft^2)</t>
   </si>
 </sst>
 </file>
@@ -151,15 +212,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -167,12 +234,54 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -487,10 +596,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9CD20E2-9C8D-4584-ABE5-94254D9DC799}">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:H40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -499,6 +608,10 @@
     <col min="2" max="2" width="24.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="28.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -561,6 +674,10 @@
       <c r="C5" t="s">
         <v>13</v>
       </c>
+      <c r="D5" t="e">
+        <f>H28</f>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -572,6 +689,10 @@
       <c r="C6" t="s">
         <v>13</v>
       </c>
+      <c r="D6" t="e">
+        <f t="shared" ref="D6:D7" si="0">H29</f>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -583,6 +704,10 @@
       <c r="C7" t="s">
         <v>13</v>
       </c>
+      <c r="D7" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -639,13 +764,282 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>1</v>
+      </c>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1" t="e">
+        <f>D23/C23</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H23" s="1" t="e">
+        <f>((D9*9.8*B23/(4*3.14^2))*E26^2)-(D9*9.8*B23^2)/9.8</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>2</v>
+      </c>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1" t="e">
+        <f t="shared" ref="E24:E25" si="1">D24/C24</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H24" s="1" t="e">
+        <f>((D9*9.8*B23/(4*3.14^2))*E33^2)-(D9*9.8*B23^2)/9.8</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>3</v>
+      </c>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H25" s="3" t="e">
+        <f>((D9*9.8*B23/(4*3.14^2))*E40^2)-(D9*9.8*B23^2)/9.8</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="5" t="e" cm="1">
+        <f t="array" ref="E26">SUM(E23:E25/3)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G27" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>10</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H28" s="1" t="e">
+        <f>H23*1.3558179619</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H29" s="1" t="e">
+        <f>H24*1.3558179619</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>1</v>
+      </c>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1" t="e">
+        <f>D30/C30</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H30" s="1" t="e">
+        <f>H25*1.3558179619</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>2</v>
+      </c>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1" t="e">
+        <f t="shared" ref="E31:E32" si="2">D31/C31</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>3</v>
+      </c>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="2" t="e">
+        <f>SUM(E30:E32)/3</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>1</v>
+      </c>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1" t="e">
+        <f>D37/C37</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>2</v>
+      </c>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1" t="e">
+        <f t="shared" ref="E38:E39" si="3">D38/C38</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>3</v>
+      </c>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="2" t="e">
+        <f>SUM(E37:E39)/3</f>
+        <v>#DIV/0!</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/RC Physical Model/Measurements/Measurements_Small_Scale_F16.xlsx
+++ b/RC Physical Model/Measurements/Measurements_Small_Scale_F16.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Camden\Desktop\Spring 2021\ECE 413\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BC46784-D4D7-47D6-9226-F402CB32460A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8252354C-C896-40E5-9368-DF810D4BC9B6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25395" yWindow="5430" windowWidth="21600" windowHeight="11385" xr2:uid="{B12440C0-934D-46DA-BFA5-1E08A9198AD1}"/>
+    <workbookView xWindow="735" yWindow="855" windowWidth="21600" windowHeight="11385" xr2:uid="{B12440C0-934D-46DA-BFA5-1E08A9198AD1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="42">
   <si>
     <t>Item to Measure</t>
   </si>
@@ -79,12 +79,6 @@
     <t>B</t>
   </si>
   <si>
-    <t>Inches</t>
-  </si>
-  <si>
-    <t>Center of Gravity x coord</t>
-  </si>
-  <si>
     <t>Ixx</t>
   </si>
   <si>
@@ -107,9 +101,6 @@
   </si>
   <si>
     <t>lbs</t>
-  </si>
-  <si>
-    <t>XCGR</t>
   </si>
   <si>
     <t>AXX</t>
@@ -598,8 +589,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9CD20E2-9C8D-4584-ABE5-94254D9DC799}">
   <dimension ref="A1:H40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -622,10 +613,10 @@
         <v>3</v>
       </c>
       <c r="C1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -636,7 +627,11 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>21</v>
+      </c>
+      <c r="D2">
+        <f>(B14*B15)+(((B17-B15)*B14)*0.5)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -650,29 +645,18 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D5" t="e">
         <f>H28</f>
@@ -681,13 +665,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D6" t="e">
         <f t="shared" ref="D6:D7" si="0">H29</f>
@@ -696,13 +680,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" t="s">
         <v>11</v>
-      </c>
-      <c r="B7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" t="s">
-        <v>13</v>
       </c>
       <c r="D7" t="e">
         <f t="shared" si="0"/>
@@ -711,29 +695,29 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -743,15 +727,15 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B13" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -761,40 +745,40 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="D22" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="E22" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G22" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D22" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>38</v>
-      </c>
       <c r="H22" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -809,7 +793,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H23" s="1" t="e">
         <f>((D9*9.8*B23/(4*3.14^2))*E26^2)-(D9*9.8*B23^2)/9.8</f>
@@ -828,7 +812,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H24" s="1" t="e">
         <f>((D9*9.8*B23/(4*3.14^2))*E33^2)-(D9*9.8*B23^2)/9.8</f>
@@ -847,7 +831,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H25" s="3" t="e">
         <f>((D9*9.8*B23/(4*3.14^2))*E40^2)-(D9*9.8*B23^2)/9.8</f>
@@ -856,7 +840,7 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -870,18 +854,18 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="G27" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H28" s="1" t="e">
         <f>H23*1.3558179619</f>
@@ -890,22 +874,22 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="D29" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C29" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="E29" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H29" s="1" t="e">
         <f>H24*1.3558179619</f>
@@ -924,7 +908,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H30" s="1" t="e">
         <f>H25*1.3558179619</f>
@@ -957,7 +941,7 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -969,24 +953,24 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C36" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="D36" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C36" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="E36" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -1027,7 +1011,7 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
